--- a/target/test-classes/testdata/batch17excel.xlsx
+++ b/target/test-classes/testdata/batch17excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b4b9f4d4ccb3f21/Desktop/Group Project 2/Group1B17/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b4b9f4d4ccb3f21/Desktop/Group Project/Group1B17/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{7FAC083B-E012-4E7F-9114-01994BC70071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C07834AA-14A9-4213-A27A-013E8978C438}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{7FAC083B-E012-4E7F-9114-01994BC70071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{829D8A1D-527D-46E3-951A-7F835BC83F60}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,32 +76,25 @@
     <t>Siraja</t>
   </si>
   <si>
-    <t>user106</t>
-  </si>
-  <si>
-    <t>user114</t>
-  </si>
-  <si>
-    <t>user123</t>
+    <t>userfinal4</t>
+  </si>
+  <si>
+    <t>userfinal5</t>
+  </si>
+  <si>
+    <t>userfinal6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,17 +140,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -391,6 +383,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -655,7 +651,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -727,7 +723,7 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -761,7 +757,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{1DCE484A-81B5-41DE-93FD-806CC979DDBD}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{91F92806-3BA0-4186-B288-909B4CDA31A3}"/>
